--- a/test.xlsx
+++ b/test.xlsx
@@ -1132,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>5.423999999999999</v>
+        <v>5.424</v>
       </c>
       <c r="H17">
         <v>17.82</v>
@@ -2396,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>5.423999999999999</v>
+        <v>5.424</v>
       </c>
       <c r="H17">
         <v>17.82</v>
